--- a/Tables/region_models_pvalue.xlsx
+++ b/Tables/region_models_pvalue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleybranch/Dropbox/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E9C8D6-ECC4-614C-8644-1D304EA47307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B648C9-AC64-ED49-BF4D-F497FA5869FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="600" windowWidth="16960" windowHeight="12780" xr2:uid="{79A1E37C-DB47-3B45-B373-13A3C8B963BE}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Tables/region_models_pvalue.xlsx
+++ b/Tables/region_models_pvalue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleybranch/Dropbox/Rapid_drought/Paper 3/climate_lag/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleybranch/Documents/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B648C9-AC64-ED49-BF4D-F497FA5869FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5862E03-E710-554B-BFDE-A7B9C91C5B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="16960" windowHeight="12780" xr2:uid="{79A1E37C-DB47-3B45-B373-13A3C8B963BE}"/>
+    <workbookView xWindow="16120" yWindow="680" windowWidth="16960" windowHeight="12780" xr2:uid="{79A1E37C-DB47-3B45-B373-13A3C8B963BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="26">
   <si>
     <t xml:space="preserve">Trait </t>
   </si>
@@ -73,9 +73,6 @@
     <t>MAPA</t>
   </si>
   <si>
-    <t>FD</t>
-  </si>
-  <si>
     <t>~ Drought</t>
   </si>
   <si>
@@ -92,13 +89,37 @@
   </si>
   <si>
     <t>Centre</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>3-way</t>
+  </si>
+  <si>
+    <t>Supp Table 2</t>
+  </si>
+  <si>
+    <t>~Region*Drought + Lag</t>
+  </si>
+  <si>
+    <t>&lt; 0.0001</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>&lt; 00.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMDA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +138,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -188,6 +215,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,295 +547,1257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAF73EA-FFC3-3548-93D8-97DCF37473CC}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1.5509999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>1.3349999999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>1.619E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>1.65E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="11">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="E34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.257E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>2.0309999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="15">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>2.539E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="15">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>1.6910000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>4.2779999999999997E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="15">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>8.8889999999999993E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>8.2920000000000008E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>7.7400000000000004E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="15">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>5.3560000000000001E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="15">
         <v>2</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="E50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>1.0169999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>5.9949999999999999E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>2.002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="E54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>1.8720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="C55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>1.9650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="17">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>1.207E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>3.4259999999999998E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>2.988E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C70" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>1.8239999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>8.7600000000000004E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="18">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="18">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78">
+        <v>5.5979999999999997E-3</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/region_models_pvalue.xlsx
+++ b/Tables/region_models_pvalue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleybranch/Documents/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5862E03-E710-554B-BFDE-A7B9C91C5B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33FA885-F9A1-5045-A76A-DDA4CB66B185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16120" yWindow="680" windowWidth="16960" windowHeight="12780" xr2:uid="{79A1E37C-DB47-3B45-B373-13A3C8B963BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{79A1E37C-DB47-3B45-B373-13A3C8B963BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="25">
   <si>
     <t xml:space="preserve">Trait </t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>South</t>
-  </si>
-  <si>
-    <t>&lt; 00.001</t>
   </si>
   <si>
     <t xml:space="preserve">CMDA </t>
@@ -189,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -233,6 +230,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAF73EA-FFC3-3548-93D8-97DCF37473CC}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,53 +1043,53 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="20">
         <v>0</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="11">
         <v>2.257E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="15">
+      <c r="C35" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="21">
         <v>1</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="20">
         <v>2.0309999999999998E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="15">
+      <c r="C36" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="21">
         <v>2</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="20">
         <v>2.539E-3</v>
       </c>
     </row>
@@ -1124,87 +1128,87 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="15">
+      <c r="B39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="21">
         <v>0</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="20">
         <v>1.6910000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="15">
+      <c r="B40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="21">
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="20">
         <v>4.2779999999999997E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="15">
+      <c r="B41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="21">
         <v>2</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="20">
         <v>8.8889999999999993E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B42" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="20">
         <v>8.2920000000000008E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B43" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="20">
         <v>7.7400000000000004E-3</v>
       </c>
     </row>
@@ -1294,121 +1298,121 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="15">
+      <c r="C49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="21">
         <v>1</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="20">
         <v>5.3560000000000001E-4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="15">
+      <c r="C50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="21">
         <v>2</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="20">
         <v>1.0169999999999999E-3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="20">
         <v>5.9949999999999999E-4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="20">
         <v>0</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="20">
         <v>2.002E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="20">
         <v>2</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="20">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="20">
         <v>1.8720000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="20">
         <v>1.9650000000000001E-2</v>
       </c>
     </row>
@@ -1623,7 +1627,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
@@ -1696,7 +1700,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>7</v>

--- a/Tables/region_models_pvalue.xlsx
+++ b/Tables/region_models_pvalue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF07CBA-CDBB-0442-880E-2E38BE08E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171D7EBE-4827-764C-B5DF-6FD7A911044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{79A1E37C-DB47-3B45-B373-13A3C8B963BE}"/>
+    <workbookView xWindow="80" yWindow="720" windowWidth="28800" windowHeight="17500" xr2:uid="{79A1E37C-DB47-3B45-B373-13A3C8B963BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="25">
   <si>
     <t xml:space="preserve">Trait </t>
   </si>
@@ -116,6 +116,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -146,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,12 +160,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -231,9 +229,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,17 +266,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAF73EA-FFC3-3548-93D8-97DCF37473CC}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,444 +658,444 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>1.65E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="C8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13">
         <v>0</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="C12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="20">
         <v>0</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="17" t="s">
+      <c r="D15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="C17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="21">
         <v>0</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="22">
+      <c r="E17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="23">
+      <c r="C18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="14">
-        <v>2</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="22">
+      <c r="C19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="21">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="16">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="C20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="22">
+      <c r="C21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="21">
         <v>0</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="E21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="21">
         <v>1E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="22">
+      <c r="C22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="21">
+        <v>2</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="21">
         <v>1E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="26">
-        <v>1</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="26">
+      <c r="C23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="25">
+        <v>1</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="25">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="22">
+      <c r="C24" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="22">
-        <v>2</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="C25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="21">
+        <v>2</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="27">
-        <v>1</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="22">
+      <c r="C26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="21">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="23">
-        <v>2</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="23" t="s">
+      <c r="C27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="22">
+        <v>2</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1068,19 +1110,19 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="29">
+      <c r="C30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="27">
         <v>0</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="31">
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="35">
         <v>2.257E-2</v>
       </c>
     </row>
@@ -1097,7 +1139,7 @@
       <c r="E31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="37">
         <v>2.0309999999999998E-3</v>
       </c>
     </row>
@@ -1114,11 +1156,11 @@
       <c r="E32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="37">
         <v>2.539E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
@@ -1152,177 +1194,180 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="9">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="30">
+        <v>2</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1.6910000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="4">
-        <v>4.2779999999999997E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="9">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="4">
-        <v>8.8889999999999993E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="4">
-        <v>8.2920000000000008E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="4">
-        <v>7.7400000000000004E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="3">
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="3">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>15</v>
+      <c r="F41" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="28"/>
+      <c r="B42" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="32">
+        <v>2</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="38"/>
+      <c r="B43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="F43" s="37">
+        <v>1.8810000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F44" s="40">
+        <v>5.3560000000000001E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>11</v>
       </c>
@@ -1330,499 +1375,491 @@
         <v>7</v>
       </c>
       <c r="D45" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="4">
-        <v>5.3560000000000001E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="39">
+        <v>1.0169999999999999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="9">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="4">
-        <v>1.0169999999999999E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="s">
+      <c r="F46" s="37">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="4">
-        <v>5.9949999999999999E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="34">
+        <v>2</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="41">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="4">
+        <v>7</v>
+      </c>
+      <c r="D48" s="9">
         <v>0</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="4">
-        <v>2.002E-2</v>
+      <c r="F48" s="36">
+        <v>1.6910000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="4">
-        <v>3.125E-2</v>
+      <c r="F49" s="37">
+        <v>4.2779999999999997E-3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="4">
-        <v>1.8720000000000001E-2</v>
+      <c r="F50" s="37">
+        <v>8.8889999999999993E-3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>14</v>
+      <c r="B51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1.9650000000000001E-2</v>
+        <v>12</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="3">
-        <v>4.7999999999999996E-3</v>
+      <c r="F52" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="3">
-        <v>4.7999999999999996E-3</v>
+      <c r="F53" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4.7999999999999996E-3</v>
-      </c>
+      <c r="A54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="F55" s="39">
+        <v>1.207E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="F56" s="42">
+        <v>3.4259999999999998E-4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>22</v>
+      <c r="F57" s="39">
+        <v>5.5979999999999997E-3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="B58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="39">
+        <v>5.5979999999999997E-3</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="7">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1.207E-3</v>
+      <c r="C59" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="32">
+        <v>2</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="43">
+        <v>5.5979999999999997E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>14</v>
+      <c r="D60" s="3">
+        <v>0</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3.4259999999999998E-4</v>
+        <v>12</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="3">
-        <v>5.5979999999999997E-3</v>
+      <c r="F61" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="44">
         <v>5.5979999999999997E-3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="44">
         <v>5.5979999999999997E-3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="3">
-        <v>2.988E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F64" s="44">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="45">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="38"/>
       <c r="B66" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>14</v>
+      <c r="D66" s="3">
+        <v>0</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="46">
+        <v>3.703E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="38"/>
       <c r="B67" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D67" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="3">
-        <v>1.8239999999999999E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="46">
+        <v>2.3139999999999999E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="38"/>
       <c r="B68" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="46">
+        <v>6.1839999999999996E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="38"/>
+      <c r="B69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="46">
+        <v>1.6550000000000001E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="3">
-        <v>8.7600000000000004E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="E70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="42">
+        <v>6.7340000000000002E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="32">
+        <v>2</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="47">
+        <v>1.8239999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="3">
         <v>0</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="11" t="s">
+      <c r="E72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="12">
-        <v>5.5979999999999997E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="12">
-        <v>5.5979999999999997E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="3">
-        <v>5.5979999999999997E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="3">
-        <v>5.5979999999999997E-3</v>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="28"/>
+      <c r="B73" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="32">
+        <v>2</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="47">
+        <v>2.988E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/region_models_pvalue.xlsx
+++ b/Tables/region_models_pvalue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171D7EBE-4827-764C-B5DF-6FD7A911044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29FF728-D02C-9E41-8D9C-81CFF4CED65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="720" windowWidth="28800" windowHeight="17500" xr2:uid="{79A1E37C-DB47-3B45-B373-13A3C8B963BE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="25">
   <si>
     <t xml:space="preserve">Trait </t>
   </si>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -237,9 +237,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +320,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -639,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAF73EA-FFC3-3548-93D8-97DCF37473CC}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,32 +659,32 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -830,14 +831,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="C12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="19">
         <v>0</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -873,241 +874,240 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="16" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="20">
         <v>0</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="20">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="21">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="22">
-        <v>1</v>
+      <c r="A18" s="12"/>
+      <c r="B18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="22">
-        <v>4.0000000000000001E-3</v>
+        <v>12</v>
+      </c>
+      <c r="F18" s="20">
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="13">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="21">
-        <v>8.0000000000000004E-4</v>
+      <c r="F19" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>13</v>
+      <c r="A20" s="12"/>
+      <c r="B20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="20">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="21">
+      <c r="C21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="20">
         <v>1E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="21">
-        <v>2</v>
+      <c r="C22" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="24">
+        <v>1</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="21">
-        <v>1E-3</v>
+      <c r="F22" s="24">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="25">
-        <v>1</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="25">
-        <v>2.0000000000000001E-4</v>
+      <c r="A23" s="12"/>
+      <c r="B23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="20">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="21">
-        <v>1</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="21">
-        <v>7.0000000000000001E-3</v>
+      <c r="C24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="20">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="21">
-        <v>2</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="21">
-        <v>8.0000000000000002E-3</v>
+      <c r="C25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="20">
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="21">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="22">
-        <v>2</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="22" t="s">
+      <c r="C26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="21">
+        <v>2</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="B29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="26">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="34">
+        <v>2.257E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
@@ -1116,14 +1116,14 @@
       <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="27">
-        <v>0</v>
+      <c r="D30" s="9">
+        <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="35">
-        <v>2.257E-2</v>
+      <c r="F30" s="36">
+        <v>2.0309999999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,30 +1134,30 @@
         <v>7</v>
       </c>
       <c r="D31" s="9">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="37">
-        <v>2.0309999999999998E-3</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="36">
+        <v>2.539E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="9">
-        <v>2</v>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="37">
-        <v>2.539E-3</v>
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1178,38 +1178,38 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="C34" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="29">
+        <v>2</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="30">
-        <v>2</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>22</v>
+      <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1220,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -1236,8 +1236,8 @@
       <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
+      <c r="D37" s="4">
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
@@ -1253,8 +1253,8 @@
       <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4">
-        <v>2</v>
+      <c r="D38" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -1268,16 +1268,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="3">
-        <v>4.7999999999999996E-3</v>
+      <c r="F39" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1288,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -1298,42 +1298,42 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="C41" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="31">
+        <v>2</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="32">
-        <v>2</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>22</v>
+      <c r="A42" s="37"/>
+      <c r="B42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="36">
+        <v>1.8810000000000001E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
       <c r="B43" s="8" t="s">
         <v>11</v>
       </c>
@@ -1346,8 +1346,8 @@
       <c r="E43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="37">
-        <v>1.8810000000000001E-3</v>
+      <c r="F43" s="39">
+        <v>5.3560000000000001E-4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1358,13 +1358,13 @@
         <v>7</v>
       </c>
       <c r="D44" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="40">
-        <v>5.3560000000000001E-4</v>
+      <c r="F44" s="38">
+        <v>1.0169999999999999E-3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1372,51 +1372,51 @@
         <v>11</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="9">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="39">
-        <v>1.0169999999999999E-3</v>
+      <c r="F45" s="36">
+        <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="C46" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="33">
+        <v>2</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="40">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="9">
         <v>0</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="37">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="34">
-        <v>2</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="41">
-        <v>0.03</v>
+      <c r="E47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="35">
+        <v>1.6910000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1427,13 +1427,13 @@
         <v>7</v>
       </c>
       <c r="D48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="36">
-        <v>1.6910000000000001E-2</v>
+        <v>4.2779999999999997E-3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1444,30 +1444,30 @@
         <v>7</v>
       </c>
       <c r="D49" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="37">
-        <v>4.2779999999999997E-3</v>
+      <c r="F49" s="36">
+        <v>8.8889999999999993E-3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="9">
-        <v>2</v>
+      <c r="C50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="37">
-        <v>8.8889999999999993E-3</v>
+        <v>12</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1478,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
@@ -1495,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -1505,31 +1505,31 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="7">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="A53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="38">
+        <v>1.207E-3</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
@@ -1538,14 +1538,14 @@
       <c r="C55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="7">
-        <v>1</v>
+      <c r="D55" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="39">
-        <v>1.207E-3</v>
+      <c r="F55" s="41">
+        <v>3.4259999999999998E-4</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1553,16 +1553,16 @@
         <v>6</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="42">
-        <v>3.4259999999999998E-4</v>
+        <v>12</v>
+      </c>
+      <c r="F56" s="38">
+        <v>5.5979999999999997E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1573,59 +1573,59 @@
         <v>9</v>
       </c>
       <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="38">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="31">
+        <v>2</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="42">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="39">
-        <v>5.5979999999999997E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="39">
-        <v>5.5979999999999997E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="32">
-        <v>2</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="43">
-        <v>5.5979999999999997E-3</v>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -1639,16 +1639,16 @@
         <v>16</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>22</v>
+      <c r="F61" s="43">
+        <v>5.5979999999999997E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1659,12 +1659,12 @@
         <v>9</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="44">
+      <c r="F62" s="43">
         <v>5.5979999999999997E-3</v>
       </c>
     </row>
@@ -1675,27 +1675,28 @@
       <c r="C63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="3">
-        <v>1</v>
+      <c r="D63" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="44">
+      <c r="F63" s="43">
         <v>5.5979999999999997E-3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="5" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="C64" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="44">
@@ -1703,25 +1704,25 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>12</v>
+      <c r="A65" s="37"/>
+      <c r="B65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F65" s="45">
-        <v>5.5979999999999997E-3</v>
+        <v>3.703E-4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="5" t="s">
         <v>11</v>
       </c>
@@ -1729,17 +1730,17 @@
         <v>7</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="46">
-        <v>3.703E-4</v>
+      <c r="F66" s="45">
+        <v>2.3139999999999999E-4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="38"/>
+      <c r="A67" s="37"/>
       <c r="B67" s="5" t="s">
         <v>11</v>
       </c>
@@ -1747,35 +1748,34 @@
         <v>7</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="46">
-        <v>2.3139999999999999E-4</v>
+      <c r="F67" s="45">
+        <v>6.1839999999999996E-4</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="38"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="3">
-        <v>2</v>
+      <c r="D68" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="46">
-        <v>6.1839999999999996E-4</v>
+      <c r="F68" s="45">
+        <v>1.6550000000000001E-4</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="38"/>
       <c r="B69" s="5" t="s">
         <v>11</v>
       </c>
@@ -1783,82 +1783,65 @@
         <v>7</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="46">
-        <v>1.6550000000000001E-4</v>
+      <c r="F69" s="41">
+        <v>6.7340000000000002E-5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="27"/>
+      <c r="B70" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="42">
-        <v>6.7340000000000002E-5</v>
+      <c r="C70" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="31">
+        <v>2</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="46">
+        <v>1.8239999999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="32">
-        <v>2</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="47">
-        <v>1.8239999999999999E-2</v>
+      <c r="B71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="5" t="s">
+      <c r="A72" s="27"/>
+      <c r="B72" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="28"/>
-      <c r="B73" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="32">
-        <v>2</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="47">
+      <c r="C72" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="31">
+        <v>2</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="46">
         <v>2.988E-2</v>
       </c>
     </row>

--- a/Tables/region_models_pvalue.xlsx
+++ b/Tables/region_models_pvalue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29FF728-D02C-9E41-8D9C-81CFF4CED65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22951E6B-6878-B946-A331-1F4E224D8A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="720" windowWidth="28800" windowHeight="17500" xr2:uid="{79A1E37C-DB47-3B45-B373-13A3C8B963BE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{79A1E37C-DB47-3B45-B373-13A3C8B963BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="25">
   <si>
     <t xml:space="preserve">Trait </t>
   </si>
@@ -117,8 +117,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -291,32 +291,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -640,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAF73EA-FFC3-3548-93D8-97DCF37473CC}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F72"/>
+      <selection activeCell="F13" sqref="A2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,111 +867,111 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="C17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="20">
         <v>0</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="E17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="20">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="21" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="21">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="21">
+      <c r="C18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="20" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="20">
+      <c r="C19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="20">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="21" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="15">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="C20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="20">
-        <v>1E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -983,9 +983,9 @@
         <v>7</v>
       </c>
       <c r="D21" s="20">
-        <v>2</v>
-      </c>
-      <c r="E21" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="20">
@@ -993,39 +993,39 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="24">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="24">
+      <c r="C22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="20">
+        <v>2</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="24">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="24">
         <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="20">
-        <v>1</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="20">
-        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1037,77 +1037,78 @@
         <v>7</v>
       </c>
       <c r="D24" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="20">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="25" t="s">
+      <c r="C25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="20">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="20">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="21" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="21">
-        <v>2</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="21" t="s">
+      <c r="C27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="21">
+        <v>2</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="26">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="34">
-        <v>2.257E-2</v>
-      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
@@ -1116,14 +1117,14 @@
       <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="9">
-        <v>1</v>
+      <c r="D30" s="26">
+        <v>0</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="36">
-        <v>2.0309999999999998E-3</v>
+      <c r="F30" s="34">
+        <v>2.257E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,30 +1135,30 @@
         <v>7</v>
       </c>
       <c r="D31" s="9">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="36">
+        <v>2.0309999999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="36">
         <v>2.539E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1178,38 +1179,38 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="29">
-        <v>2</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="31" t="s">
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4.7999999999999996E-3</v>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="29">
+        <v>2</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1220,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -1236,8 +1237,8 @@
       <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="4">
-        <v>2</v>
+      <c r="D37" s="3">
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
@@ -1253,8 +1254,8 @@
       <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>14</v>
+      <c r="D38" s="4">
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -1268,16 +1269,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>22</v>
+      <c r="F39" s="3">
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1288,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -1298,42 +1299,42 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="31">
-        <v>2</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="31" t="s">
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="9">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="36">
-        <v>1.8810000000000001E-3</v>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="31">
+        <v>2</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
       <c r="B43" s="8" t="s">
         <v>11</v>
       </c>
@@ -1346,8 +1347,8 @@
       <c r="E43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="39">
-        <v>5.3560000000000001E-4</v>
+      <c r="F43" s="36">
+        <v>1.8810000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1358,13 +1359,13 @@
         <v>7</v>
       </c>
       <c r="D44" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="38">
-        <v>1.0169999999999999E-3</v>
+      <c r="F44" s="39">
+        <v>5.3560000000000001E-4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1372,51 +1373,51 @@
         <v>11</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="4">
+        <v>7</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="38">
+        <v>1.0169999999999999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4">
         <v>0</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="36">
+      <c r="E46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="36">
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="32" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="33">
-        <v>2</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="40">
+      <c r="C47" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="33">
+        <v>2</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="40">
         <v>0.03</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="9">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="35">
-        <v>1.6910000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1427,13 +1428,13 @@
         <v>7</v>
       </c>
       <c r="D48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="36">
-        <v>4.2779999999999997E-3</v>
+      <c r="F48" s="35">
+        <v>1.6910000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1444,30 +1445,30 @@
         <v>7</v>
       </c>
       <c r="D49" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="36">
+        <v>4.2779999999999997E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="36">
         <v>8.8889999999999993E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="7">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1478,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
@@ -1495,7 +1496,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -1505,31 +1506,31 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="7">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="38">
-        <v>1.207E-3</v>
-      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
@@ -1538,14 +1539,14 @@
       <c r="C55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>14</v>
+      <c r="D55" s="7">
+        <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="41">
-        <v>3.4259999999999998E-4</v>
+      <c r="F55" s="38">
+        <v>1.207E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1553,16 +1554,16 @@
         <v>6</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="38">
-        <v>5.5979999999999997E-3</v>
+        <v>8</v>
+      </c>
+      <c r="F56" s="41">
+        <v>3.4259999999999998E-4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1573,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
@@ -1583,49 +1584,49 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="31">
-        <v>2</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="42">
+      <c r="C58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="38">
         <v>5.5979999999999997E-3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>22</v>
+      <c r="A59" s="27"/>
+      <c r="B59" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="31">
+        <v>2</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="42">
+        <v>5.5979999999999997E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -1639,16 +1640,16 @@
         <v>16</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="43">
-        <v>5.5979999999999997E-3</v>
+      <c r="F61" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1659,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
@@ -1675,8 +1676,8 @@
       <c r="C63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>15</v>
+      <c r="D63" s="3">
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
@@ -1686,39 +1687,38 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="31" t="s">
+      <c r="C64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="43">
+        <v>5.5979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
+      <c r="B65" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="44">
+      <c r="E65" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="44">
         <v>5.5979999999999997E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="37"/>
-      <c r="B65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="45">
-        <v>3.703E-4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1730,13 +1730,13 @@
         <v>7</v>
       </c>
       <c r="D66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="45">
-        <v>2.3139999999999999E-4</v>
+        <v>3.703E-4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1748,13 +1748,13 @@
         <v>7</v>
       </c>
       <c r="D67" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="45">
-        <v>6.1839999999999996E-4</v>
+        <v>2.3139999999999999E-4</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1765,17 +1765,18 @@
       <c r="C68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>15</v>
+      <c r="D68" s="3">
+        <v>2</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="45">
-        <v>1.6550000000000001E-4</v>
+        <v>6.1839999999999996E-4</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="37"/>
       <c r="B69" s="5" t="s">
         <v>11</v>
       </c>
@@ -1783,65 +1784,82 @@
         <v>7</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="45">
+        <v>1.6550000000000001E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="41">
+      <c r="E70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="41">
         <v>6.7340000000000002E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="27"/>
-      <c r="B70" s="28" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="27"/>
+      <c r="B71" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="31">
-        <v>2</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="46">
+      <c r="C71" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="31">
+        <v>2</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="46">
         <v>1.8239999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="5" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="3">
         <v>0</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="3" t="s">
+      <c r="E72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="28" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="27"/>
+      <c r="B73" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="31">
-        <v>2</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="46">
+      <c r="C73" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="31">
+        <v>2</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="46">
         <v>2.988E-2</v>
       </c>
     </row>
